--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Egf-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Egf-Erbb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2711976666666667</v>
+        <v>0.1463976666666667</v>
       </c>
       <c r="H2">
-        <v>0.813593</v>
+        <v>0.439193</v>
       </c>
       <c r="I2">
-        <v>0.2043600193410237</v>
+        <v>0.1157910139257259</v>
       </c>
       <c r="J2">
-        <v>0.2043600193410237</v>
+        <v>0.115791013925726</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,22 +564,22 @@
         <v>0.614446</v>
       </c>
       <c r="O2">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P2">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q2">
-        <v>0.05554544049755556</v>
+        <v>0.02998448689755556</v>
       </c>
       <c r="R2">
-        <v>0.499908964478</v>
+        <v>0.269860382078</v>
       </c>
       <c r="S2">
-        <v>0.01274808425166286</v>
+        <v>0.007552480336551452</v>
       </c>
       <c r="T2">
-        <v>0.01274808425166286</v>
+        <v>0.007552480336551453</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2711976666666667</v>
+        <v>0.1463976666666667</v>
       </c>
       <c r="H3">
-        <v>0.813593</v>
+        <v>0.439193</v>
       </c>
       <c r="I3">
-        <v>0.2043600193410237</v>
+        <v>0.1157910139257259</v>
       </c>
       <c r="J3">
-        <v>0.2043600193410237</v>
+        <v>0.115791013925726</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N3">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O3">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P3">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q3">
-        <v>0.1909613058051112</v>
+        <v>0.09488520768888889</v>
       </c>
       <c r="R3">
-        <v>1.718651752246</v>
+        <v>0.8539668692</v>
       </c>
       <c r="S3">
-        <v>0.04382701430404978</v>
+        <v>0.02389964743263142</v>
       </c>
       <c r="T3">
-        <v>0.04382701430404978</v>
+        <v>0.02389964743263142</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2711976666666667</v>
+        <v>0.1463976666666667</v>
       </c>
       <c r="H4">
-        <v>0.813593</v>
+        <v>0.439193</v>
       </c>
       <c r="I4">
-        <v>0.2043600193410237</v>
+        <v>0.1157910139257259</v>
       </c>
       <c r="J4">
-        <v>0.2043600193410237</v>
+        <v>0.115791013925726</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N4">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O4">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P4">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q4">
-        <v>0.4459459623654445</v>
+        <v>0.2764288061883333</v>
       </c>
       <c r="R4">
-        <v>4.013513661289</v>
+        <v>2.487859255695</v>
       </c>
       <c r="S4">
-        <v>0.1023478551794678</v>
+        <v>0.06962677501624943</v>
       </c>
       <c r="T4">
-        <v>0.1023478551794678</v>
+        <v>0.06962677501624943</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2711976666666667</v>
+        <v>0.1463976666666667</v>
       </c>
       <c r="H5">
-        <v>0.813593</v>
+        <v>0.439193</v>
       </c>
       <c r="I5">
-        <v>0.2043600193410237</v>
+        <v>0.1157910139257259</v>
       </c>
       <c r="J5">
-        <v>0.2043600193410237</v>
+        <v>0.115791013925726</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N5">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O5">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P5">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q5">
-        <v>0.1979765566472222</v>
+        <v>0.05840930185366667</v>
       </c>
       <c r="R5">
-        <v>1.781789009825</v>
+        <v>0.525683716683</v>
       </c>
       <c r="S5">
-        <v>0.04543706560584324</v>
+        <v>0.01471211114029364</v>
       </c>
       <c r="T5">
-        <v>0.04543706560584324</v>
+        <v>0.01471211114029364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>1.533021</v>
       </c>
       <c r="I6">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198567</v>
       </c>
       <c r="J6">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198568</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,10 +812,10 @@
         <v>0.614446</v>
       </c>
       <c r="O6">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P6">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q6">
         <v>0.1046620690406667</v>
@@ -824,10 +824,10 @@
         <v>0.9419586213660002</v>
       </c>
       <c r="S6">
-        <v>0.02402070920911126</v>
+        <v>0.0263622392843703</v>
       </c>
       <c r="T6">
-        <v>0.02402070920911126</v>
+        <v>0.0263622392843703</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.533021</v>
       </c>
       <c r="I7">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198567</v>
       </c>
       <c r="J7">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198568</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N7">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O7">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P7">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q7">
-        <v>0.3598208096513335</v>
+        <v>0.3312006702666667</v>
       </c>
       <c r="R7">
-        <v>3.238387286862001</v>
+        <v>2.9808060324</v>
       </c>
       <c r="S7">
-        <v>0.08258150364544523</v>
+        <v>0.08342268981249713</v>
       </c>
       <c r="T7">
-        <v>0.08258150364544521</v>
+        <v>0.08342268981249713</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.533021</v>
       </c>
       <c r="I8">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198567</v>
       </c>
       <c r="J8">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198568</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N8">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O8">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P8">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q8">
-        <v>0.8402782781703336</v>
+        <v>0.9648859724350002</v>
       </c>
       <c r="R8">
-        <v>7.562504503533002</v>
+        <v>8.683973751915</v>
       </c>
       <c r="S8">
-        <v>0.1928500015303511</v>
+        <v>0.2430350854002357</v>
       </c>
       <c r="T8">
-        <v>0.1928500015303511</v>
+        <v>0.2430350854002358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.533021</v>
       </c>
       <c r="I9">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198567</v>
       </c>
       <c r="J9">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198568</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N9">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O9">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P9">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q9">
-        <v>0.3730393683916667</v>
+        <v>0.203880039839</v>
       </c>
       <c r="R9">
-        <v>3.357354315525</v>
+        <v>1.834920358551</v>
       </c>
       <c r="S9">
-        <v>0.08561525941365698</v>
+        <v>0.05135322132275354</v>
       </c>
       <c r="T9">
-        <v>0.08561525941365697</v>
+        <v>0.05135322132275355</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.181472</v>
+        <v>0.1328766666666667</v>
       </c>
       <c r="H10">
-        <v>0.544416</v>
+        <v>0.39863</v>
       </c>
       <c r="I10">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="J10">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1060,22 +1060,22 @@
         <v>0.614446</v>
       </c>
       <c r="O10">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P10">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q10">
-        <v>0.03716824817066667</v>
+        <v>0.02721517877555556</v>
       </c>
       <c r="R10">
-        <v>0.334514233536</v>
+        <v>0.24493660898</v>
       </c>
       <c r="S10">
-        <v>0.008530384400988319</v>
+        <v>0.006854948135693204</v>
       </c>
       <c r="T10">
-        <v>0.008530384400988319</v>
+        <v>0.006854948135693204</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.181472</v>
+        <v>0.1328766666666667</v>
       </c>
       <c r="H11">
-        <v>0.544416</v>
+        <v>0.39863</v>
       </c>
       <c r="I11">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="J11">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N11">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O11">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P11">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q11">
-        <v>0.1277818150613334</v>
+        <v>0.08612179688888889</v>
       </c>
       <c r="R11">
-        <v>1.150036335552</v>
+        <v>0.7750961719999999</v>
       </c>
       <c r="S11">
-        <v>0.02932685976815627</v>
+        <v>0.02169232309274024</v>
       </c>
       <c r="T11">
-        <v>0.02932685976815627</v>
+        <v>0.02169232309274023</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.181472</v>
+        <v>0.1328766666666667</v>
       </c>
       <c r="H12">
-        <v>0.544416</v>
+        <v>0.39863</v>
       </c>
       <c r="I12">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="J12">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N12">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O12">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P12">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q12">
-        <v>0.2984048744853334</v>
+        <v>0.2508983863833333</v>
       </c>
       <c r="R12">
-        <v>2.685643870368</v>
+        <v>2.25808547745</v>
       </c>
       <c r="S12">
-        <v>0.0684860979941877</v>
+        <v>0.06319618328326615</v>
       </c>
       <c r="T12">
-        <v>0.0684860979941877</v>
+        <v>0.06319618328326615</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.181472</v>
+        <v>0.1328766666666667</v>
       </c>
       <c r="H13">
-        <v>0.544416</v>
+        <v>0.39863</v>
       </c>
       <c r="I13">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="J13">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N13">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O13">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P13">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q13">
-        <v>0.1324760722666667</v>
+        <v>0.05301473383666666</v>
       </c>
       <c r="R13">
-        <v>1.1922846504</v>
+        <v>0.4771326045299999</v>
       </c>
       <c r="S13">
-        <v>0.03040422607971155</v>
+        <v>0.0133533295472725</v>
       </c>
       <c r="T13">
-        <v>0.03040422607971155</v>
+        <v>0.0133533295472725</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.276985</v>
+        <v>0.180116</v>
       </c>
       <c r="H14">
-        <v>0.830955</v>
+        <v>0.5403480000000001</v>
       </c>
       <c r="I14">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="J14">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1308,22 +1308,22 @@
         <v>0.614446</v>
       </c>
       <c r="O14">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P14">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q14">
-        <v>0.05673077510333333</v>
+        <v>0.03689051857866667</v>
       </c>
       <c r="R14">
-        <v>0.5105769759300001</v>
+        <v>0.332014667208</v>
       </c>
       <c r="S14">
-        <v>0.01302012720038215</v>
+        <v>0.009291968781139281</v>
       </c>
       <c r="T14">
-        <v>0.01302012720038215</v>
+        <v>0.009291968781139281</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.276985</v>
+        <v>0.180116</v>
       </c>
       <c r="H15">
-        <v>0.830955</v>
+        <v>0.5403480000000001</v>
       </c>
       <c r="I15">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="J15">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N15">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O15">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P15">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q15">
-        <v>0.1950364025566667</v>
+        <v>0.1167391834666667</v>
       </c>
       <c r="R15">
-        <v>1.75532762301</v>
+        <v>1.0506526512</v>
       </c>
       <c r="S15">
-        <v>0.04476227876963258</v>
+        <v>0.0294042179427439</v>
       </c>
       <c r="T15">
-        <v>0.04476227876963259</v>
+        <v>0.0294042179427439</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.276985</v>
+        <v>0.180116</v>
       </c>
       <c r="H16">
-        <v>0.830955</v>
+        <v>0.5403480000000001</v>
       </c>
       <c r="I16">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="J16">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N16">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O16">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P16">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q16">
-        <v>0.4554624083016667</v>
+        <v>0.34009593178</v>
       </c>
       <c r="R16">
-        <v>4.099161674715</v>
+        <v>3.06086338602</v>
       </c>
       <c r="S16">
-        <v>0.1045319490219983</v>
+        <v>0.08566322465631362</v>
       </c>
       <c r="T16">
-        <v>0.1045319490219983</v>
+        <v>0.08566322465631362</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.276985</v>
+        <v>0.180116</v>
       </c>
       <c r="H17">
-        <v>0.830955</v>
+        <v>0.5403480000000001</v>
       </c>
       <c r="I17">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="J17">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N17">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O17">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P17">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q17">
-        <v>0.2022013582083333</v>
+        <v>0.071862141332</v>
       </c>
       <c r="R17">
-        <v>1.819812223875</v>
+        <v>0.6467592719880001</v>
       </c>
       <c r="S17">
-        <v>0.04640668841853785</v>
+        <v>0.01810060686403332</v>
       </c>
       <c r="T17">
-        <v>0.04640668841853786</v>
+        <v>0.01810060686403332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.08639666666666668</v>
+        <v>0.2939293333333333</v>
       </c>
       <c r="H18">
-        <v>0.25919</v>
+        <v>0.881788</v>
       </c>
       <c r="I18">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512151</v>
       </c>
       <c r="J18">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512152</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.614446</v>
       </c>
       <c r="O18">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P18">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q18">
-        <v>0.01769536208222222</v>
+        <v>0.06020123438311111</v>
       </c>
       <c r="R18">
-        <v>0.15925825874</v>
+        <v>0.541811109448</v>
       </c>
       <c r="S18">
-        <v>0.004061214830005295</v>
+        <v>0.01516346237532709</v>
       </c>
       <c r="T18">
-        <v>0.004061214830005295</v>
+        <v>0.01516346237532709</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.08639666666666668</v>
+        <v>0.2939293333333333</v>
       </c>
       <c r="H19">
-        <v>0.25919</v>
+        <v>0.881788</v>
       </c>
       <c r="I19">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512151</v>
       </c>
       <c r="J19">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512152</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N19">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O19">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P19">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q19">
-        <v>0.06083540646444447</v>
+        <v>0.1905053985777778</v>
       </c>
       <c r="R19">
-        <v>0.5475186581800002</v>
+        <v>1.7145485872</v>
       </c>
       <c r="S19">
-        <v>0.01396217007455406</v>
+        <v>0.04798442213406223</v>
       </c>
       <c r="T19">
-        <v>0.01396217007455406</v>
+        <v>0.04798442213406223</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.08639666666666668</v>
+        <v>0.2939293333333333</v>
       </c>
       <c r="H20">
-        <v>0.25919</v>
+        <v>0.881788</v>
       </c>
       <c r="I20">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512151</v>
       </c>
       <c r="J20">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512152</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N20">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O20">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P20">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q20">
-        <v>0.1420670212077778</v>
+        <v>0.5549988368466666</v>
       </c>
       <c r="R20">
-        <v>1.27860319087</v>
+        <v>4.99498953162</v>
       </c>
       <c r="S20">
-        <v>0.03260541890597174</v>
+        <v>0.1397928807791302</v>
       </c>
       <c r="T20">
-        <v>0.03260541890597174</v>
+        <v>0.1397928807791303</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.08639666666666668</v>
+        <v>0.2939293333333333</v>
       </c>
       <c r="H21">
-        <v>0.25919</v>
+        <v>0.881788</v>
       </c>
       <c r="I21">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512151</v>
       </c>
       <c r="J21">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512152</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N21">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O21">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P21">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q21">
-        <v>0.06307028663888889</v>
+        <v>0.1172710436253333</v>
       </c>
       <c r="R21">
-        <v>0.56763257975</v>
+        <v>1.055439392628</v>
       </c>
       <c r="S21">
-        <v>0.01447509139628599</v>
+        <v>0.02953818266269555</v>
       </c>
       <c r="T21">
-        <v>0.01447509139628599</v>
+        <v>0.02953818266269555</v>
       </c>
     </row>
   </sheetData>
